--- a/업무연락방_작업일정_20201109_희권.xlsx
+++ b/업무연락방_작업일정_20201109_희권.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\git_project\PUB_figma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heekweonkang/projects/git_project/PUB_figma/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B696536-9C54-5748-8710-51E2F6E15958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="19200" windowHeight="21945"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="20">
   <si>
     <t>반응형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,12 +94,24 @@
     <t>캘린더 확인 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>전체 페이지에 반응형 스타일을 제거했으니 반응형이 필요한 페이지에 적용시켜주면 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형이 필요한 페이지에 media.css를 추가하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금일 전달하는 페이지들에 적용되어 있으니 확인바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,22 +619,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="10.1640625" style="2" customWidth="1"/>
     <col min="6" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="33.75" customHeight="1">
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
@@ -632,7 +645,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.5" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -641,7 +654,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -652,8 +665,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:10" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.5" customHeight="1">
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -690,8 +703,11 @@
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -705,8 +721,11 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -720,8 +739,11 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -736,7 +758,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="16.5" customHeight="1">
       <c r="B11" s="6">
         <v>5</v>
       </c>
@@ -758,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="16.5" customHeight="1">
       <c r="B12" s="6">
         <v>6</v>
       </c>
@@ -779,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="16.5" customHeight="1">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -800,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.5" customHeight="1">
       <c r="B14" s="6">
         <v>8</v>
       </c>
@@ -819,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="16.5" customHeight="1">
       <c r="B15" s="6">
         <v>9</v>
       </c>
@@ -841,7 +863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="16.5" customHeight="1">
       <c r="B16" s="5">
         <v>10</v>
       </c>
@@ -862,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="16.5" customHeight="1">
       <c r="B17" s="5">
         <v>11</v>
       </c>
@@ -883,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="16.5" customHeight="1">
       <c r="B18" s="5">
         <v>12</v>
       </c>
@@ -910,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="16.5" customHeight="1">
       <c r="B19" s="5">
         <v>13</v>
       </c>
@@ -937,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="16.5" customHeight="1">
       <c r="B20" s="6">
         <v>14</v>
       </c>
@@ -956,7 +978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="16.5" customHeight="1">
       <c r="B21" s="6">
         <v>15</v>
       </c>
@@ -975,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="16.5" customHeight="1">
       <c r="B22" s="5">
         <v>16</v>
       </c>
@@ -999,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="16.5" customHeight="1">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="16.5" customHeight="1">
       <c r="B24" s="5">
         <v>18</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="16.5" customHeight="1">
       <c r="B25" s="5">
         <v>19</v>
       </c>
@@ -1071,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="16.5" customHeight="1">
       <c r="B26" s="5">
         <v>20</v>
       </c>
@@ -1086,7 +1108,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="16.5" customHeight="1">
       <c r="B27" s="5">
         <v>21</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="16.5" customHeight="1">
       <c r="B28" s="5">
         <v>22</v>
       </c>
@@ -1136,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="16.5" customHeight="1">
       <c r="B29" s="5">
         <v>23</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="16.5" customHeight="1">
       <c r="B30" s="5">
         <v>24</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="16.5" customHeight="1">
       <c r="B31" s="5">
         <v>25</v>
       </c>
@@ -1199,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="16.5" customHeight="1">
       <c r="B32" s="5">
         <v>26</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.5" customHeight="1">
       <c r="B33" s="5">
         <v>27</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="16.5" customHeight="1">
       <c r="B34" s="5">
         <v>28</v>
       </c>
@@ -1254,7 +1276,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="16.5" customHeight="1">
       <c r="B35" s="5">
         <v>29</v>
       </c>
@@ -1273,7 +1295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="16.5" customHeight="1">
       <c r="B36" s="5">
         <v>30</v>
       </c>
@@ -1298,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="16.5" customHeight="1">
       <c r="B37" s="5">
         <v>31</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="16.5" customHeight="1">
       <c r="B38" s="5">
         <v>32</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="16.5" customHeight="1">
       <c r="B39" s="5">
         <v>33</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="16.5" customHeight="1">
       <c r="B40" s="5">
         <v>34</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="16.5" customHeight="1">
       <c r="B41" s="5">
         <v>35</v>
       </c>
@@ -1393,7 +1415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="16.5" customHeight="1">
       <c r="B42" s="5">
         <v>36</v>
       </c>
@@ -1412,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="16.5" customHeight="1">
       <c r="B43" s="5">
         <v>37</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="16.5" customHeight="1">
       <c r="B44" s="5">
         <v>38</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="16.5" customHeight="1">
       <c r="B45" s="5">
         <v>39</v>
       </c>
@@ -1481,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="16.5" customHeight="1">
       <c r="B46" s="5">
         <v>40</v>
       </c>
@@ -1500,7 +1522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="16.5" customHeight="1">
       <c r="B47" s="5">
         <v>41</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="16.5" customHeight="1">
       <c r="B48" s="5">
         <v>42</v>
       </c>
@@ -1542,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="16.5" customHeight="1">
       <c r="B49" s="5">
         <v>43</v>
       </c>
@@ -1561,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="16.5" customHeight="1">
       <c r="B50" s="6">
         <v>44</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="16.5" customHeight="1">
       <c r="B51" s="5">
         <v>45</v>
       </c>
@@ -1597,7 +1619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="16.5" customHeight="1">
       <c r="B52" s="5">
         <v>46</v>
       </c>
@@ -1616,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="16.5" customHeight="1">
       <c r="B53" s="5">
         <v>47</v>
       </c>
@@ -1644,7 +1666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="16.5" customHeight="1">
       <c r="B54" s="5">
         <v>48</v>
       </c>
@@ -1665,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="16.5" customHeight="1">
       <c r="B55" s="5">
         <v>49</v>
       </c>
@@ -1682,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="16.5" customHeight="1">
       <c r="B56" s="5">
         <v>50</v>
       </c>
@@ -1699,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="16.5" customHeight="1">
       <c r="B57" s="5">
         <v>51</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="16.5" customHeight="1">
       <c r="B58" s="5">
         <v>52</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="16.5" customHeight="1">
       <c r="B59" s="5">
         <v>53</v>
       </c>
@@ -1752,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="16.5" customHeight="1">
       <c r="B60" s="5">
         <v>54</v>
       </c>
@@ -1773,7 +1795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="16.5" customHeight="1">
       <c r="B61" s="5">
         <v>55</v>
       </c>
@@ -1794,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" ht="16.5" customHeight="1">
       <c r="B62" s="5">
         <v>56</v>
       </c>
@@ -1815,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" ht="16.5" customHeight="1">
       <c r="B63" s="6">
         <v>57</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" ht="16.5" customHeight="1">
       <c r="B64" s="6">
         <v>58</v>
       </c>
@@ -1849,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="16.5" customHeight="1">
       <c r="B65" s="6">
         <v>59</v>
       </c>
@@ -1866,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="16.5" customHeight="1">
       <c r="B66" s="6">
         <v>60</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="16.5" customHeight="1">
       <c r="B67" s="6">
         <v>61</v>
       </c>
@@ -1900,7 +1922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="16.5" customHeight="1">
       <c r="B68" s="6">
         <v>62</v>
       </c>
@@ -1917,7 +1939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="16.5" customHeight="1">
       <c r="B69" s="6">
         <v>63</v>
       </c>
@@ -1934,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="16.5" customHeight="1">
       <c r="B70" s="6">
         <v>64</v>
       </c>
@@ -1951,7 +1973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="16.5" customHeight="1">
       <c r="B71" s="6">
         <v>65</v>
       </c>
@@ -1968,7 +1990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="16.5" customHeight="1">
       <c r="B72" s="6">
         <v>66</v>
       </c>
@@ -1985,7 +2007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="16.5" customHeight="1">
       <c r="B73" s="6">
         <v>67</v>
       </c>
@@ -2002,7 +2024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="16.5" customHeight="1">
       <c r="B74" s="6">
         <v>68</v>
       </c>
@@ -2019,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="16.5" customHeight="1">
       <c r="B75" s="6">
         <v>69</v>
       </c>
@@ -2036,7 +2058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="16.5" customHeight="1">
       <c r="B76" s="6">
         <v>70</v>
       </c>
@@ -2053,7 +2075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="16.5" customHeight="1">
       <c r="B77" s="6">
         <v>71</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="16.5" customHeight="1">
       <c r="B78" s="6">
         <v>72</v>
       </c>
@@ -2087,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="16.5" customHeight="1">
       <c r="B79" s="6">
         <v>73</v>
       </c>
@@ -2104,7 +2126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="16.5" customHeight="1">
       <c r="B80" s="6">
         <v>74</v>
       </c>
@@ -2123,7 +2145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="16.5" customHeight="1">
       <c r="B81" s="6">
         <v>75</v>
       </c>
@@ -2140,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="16.5" customHeight="1">
       <c r="B82" s="6">
         <v>76</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="16.5" customHeight="1">
       <c r="B83" s="6">
         <v>77</v>
       </c>
@@ -2178,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="16.5" customHeight="1">
       <c r="B84" s="6">
         <v>78</v>
       </c>
@@ -2195,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="16.5" customHeight="1">
       <c r="B85" s="6">
         <v>79</v>
       </c>
@@ -2214,7 +2236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="B86" s="6">
         <v>80</v>
       </c>
